--- a/biology/Médecine/Argatroban/Argatroban.xlsx
+++ b/biology/Médecine/Argatroban/Argatroban.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Argatroban est un médicament anticoagulant utilisé en cas de thrombopénie induite par l'héparine (TIH — ou HIT, de l'anglais : Heparine induced thrombocytopenia), une pathologie provoquant saignement et thrombose et contre-indiquant le traitement par tout autre héparine qu'elle soit de haut ou de bas poids moléculaire.
@@ -512,7 +524,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un inhibiteur direct du facteur de coagulation II ou thrombine.
 </t>
@@ -543,9 +557,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'administre en intraveineuse et sa demi-vie d'élimination est inférieure à une heure, non modifiée en cas d'insuffisance rénale mais fortement augmentée en cas d'insuffisance hépatique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'administre en intraveineuse et sa demi-vie d'élimination est inférieure à une heure, non modifiée en cas d'insuffisance rénale mais fortement augmentée en cas d'insuffisance hépatique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est principalement utilisé dans les syndromes de thrombopénie induite par l'héparine[3] (TIH, HIT, Heparin induced thrombocytopenia).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est principalement utilisé dans les syndromes de thrombopénie induite par l'héparine (TIH, HIT, Heparin induced thrombocytopenia).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Médicaments alternatifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le danaparoïde et la lépirudine sont des molécules qui ont la même indication.
 </t>
